--- a/biology/Botanique/Pariana/Pariana.xlsx
+++ b/biology/Botanique/Pariana/Pariana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pariana est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire d'Amérique tropicale, qui compte une trentaine d'espèces.
 Les espèces de ce genre sont des plantes vivaces, monoïques, à tiges robustes herbacées ou ligneuses, pouvant atteindre 2 m de haut.
-La plupart de ces plantes ont des grains de pollen qui présentent des sculptures de l'exine plus prononcées que chez les autres espèces de Poaceae aux grains de pollen plus lisses. Ce trait, associé à la forme particulière de l'inflorescence et à l'habitat de ces plantes en sous-bois de forêts tropicales peu sujet au vent, fait penser à une possible pollinisation entomophile qui n'a cependant pas été démontrée formellement[2].
+La plupart de ces plantes ont des grains de pollen qui présentent des sculptures de l'exine plus prononcées que chez les autres espèces de Poaceae aux grains de pollen plus lisses. Ce trait, associé à la forme particulière de l'inflorescence et à l'habitat de ces plantes en sous-bois de forêts tropicales peu sujet au vent, fait penser à une possible pollinisation entomophile qui n'a cependant pas été démontrée formellement.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 novembre 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 novembre 2016) :
 Pariana argentea Hollowell &amp; Davidse
 Pariana aurita Swallen
 Pariana bicolor Tutin
@@ -545,7 +559,7 @@
 Pariana trichosticha Tutin
 Pariana ulei Pilg.
 Pariana velutina Swallen
-Selon World Checklist of Selected Plant Families (WCSP)  (7 novembre 2016)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (7 novembre 2016) :
 Pariana argentea Hollowell &amp; Davidse (1992)
 Pariana aurita Swallen (1940)
 Pariana bicolor Tutin, J. Linn. Soc. (1936)
@@ -581,7 +595,7 @@
 Pariana velutina Swallen (1940)
 Pariana violascens Swallen (1957)
 Pariana vulgaris Tutin, J. Linn. Soc. (1936)
-Selon The Plant List            (7 novembre 2016)[5] :
+Selon The Plant List            (7 novembre 2016) :
 Pariana argentea Hollowell &amp; Davidse
 Pariana aurita Swallen
 Pariana bicolor Tutin
